--- a/data/trans_camb/P16A02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>6.271655519545486</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14.78195024350106</v>
+        <v>14.78195024350107</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>13.14892554697031</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7865874884692364</v>
+        <v>0.6608139559477912</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.59923560167477</v>
+        <v>2.067523915063022</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.35951496017194</v>
+        <v>10.49941119161218</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8.67315199888481</v>
+        <v>8.358228661855028</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>8.039595581727673</v>
+        <v>8.425484781416721</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>15.11172248092287</v>
+        <v>15.04415606279333</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.918809933950446</v>
+        <v>5.793222324927648</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.541355023797737</v>
+        <v>5.766301622083672</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>13.88735263329038</v>
+        <v>13.99568631543196</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.520918079218632</v>
+        <v>8.400431320303703</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.51467729211428</v>
+        <v>10.30091001892863</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.12910984373278</v>
+        <v>19.23341647597625</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.21711988551667</v>
+        <v>17.831499964228</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>17.34613266804158</v>
+        <v>17.45817642756396</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>24.08218254145696</v>
+        <v>23.7020800752291</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.81797482582452</v>
+        <v>11.75698778963023</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>12.7105255039355</v>
+        <v>12.33939450430426</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>20.28600310189368</v>
+        <v>20.40349014855456</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.04023192913733387</v>
+        <v>0.04533875028209074</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1795279920664297</v>
+        <v>0.1339938229446948</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.6761254781703964</v>
+        <v>0.718924196962676</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3896856140216283</v>
+        <v>0.3678230940876188</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3670560441515682</v>
+        <v>0.3673636317612987</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6706902894526734</v>
+        <v>0.6596089559348839</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3307160589964325</v>
+        <v>0.3099246294285201</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.365477453114874</v>
+        <v>0.3228806242945747</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.7662950448426473</v>
+        <v>0.769090422688384</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7363990210048086</v>
+        <v>0.7760630449446818</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9522408471535825</v>
+        <v>0.9444121348727205</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.715110756388872</v>
+        <v>1.767295207570233</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.014664751547212</v>
+        <v>0.9824332955813038</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.962205381987374</v>
+        <v>0.9502742646380485</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.359738772043874</v>
+        <v>1.324731678240419</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.799510550833707</v>
+        <v>0.7573135004393801</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8574873991527941</v>
+        <v>0.8110292189558541</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.389249835922612</v>
+        <v>1.359917289795661</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>6.427221353281065</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8.122472377645023</v>
+        <v>8.122472377645021</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>9.62230973358486</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.393770767217722</v>
+        <v>2.689452096162548</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.086376109234398</v>
+        <v>3.233277591072301</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.710573132968452</v>
+        <v>4.471587913772517</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.98551949345278</v>
+        <v>5.637000285679274</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.801163904927163</v>
+        <v>2.870595312837997</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>13.51049820644604</v>
+        <v>13.35435350785762</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4.734223948178947</v>
+        <v>5.043670090960396</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.805679236020496</v>
+        <v>4.009087304229624</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>9.682841283708292</v>
+        <v>9.924579055478427</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.906068936002139</v>
+        <v>9.189785258223008</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.498946632410487</v>
+        <v>10.26278401851203</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.37331367086147</v>
+        <v>11.57598127602624</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.21514465181145</v>
+        <v>13.71671368211454</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>10.54607182330864</v>
+        <v>10.8566228933573</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>21.09989111923148</v>
+        <v>20.97936242731664</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.49005313415597</v>
+        <v>10.08124712194922</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>9.102150109278053</v>
+        <v>9.188771048954258</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>15.19842247982812</v>
+        <v>15.1806880251099</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.482328421935901</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.6095479008401513</v>
+        <v>0.6095479008401511</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.4380227048190413</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1615542918328881</v>
+        <v>0.1727456953232707</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2123628677138882</v>
+        <v>0.2096281577918878</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3154062079629808</v>
+        <v>0.288326884348137</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.212409875583198</v>
+        <v>0.2388440097532206</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1102181811317424</v>
+        <v>0.1216701701666426</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5587078623079036</v>
+        <v>0.5519605324169069</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2518329306849179</v>
+        <v>0.2659721573990425</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1970077277555711</v>
+        <v>0.2104342189992688</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.5013450211415793</v>
+        <v>0.5264916523378077</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.754082599246485</v>
+        <v>0.7646111348504145</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8039921996903898</v>
+        <v>0.8801169416654469</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.9564861848273892</v>
+        <v>0.9734054425835899</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6576347028203571</v>
+        <v>0.6749128875989733</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5320127373876806</v>
+        <v>0.5234526107371741</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.082030714516401</v>
+        <v>1.053366300734145</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6486306541981678</v>
+        <v>0.6087998345628551</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5567082041176606</v>
+        <v>0.5587410636696153</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9163149826809134</v>
+        <v>0.9282843093030281</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.350321134791012</v>
+        <v>0.2888315623881729</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.6591550933384168</v>
+        <v>-0.994973544596638</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.461402796976186</v>
+        <v>5.793271633050403</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.88889828105479</v>
+        <v>1.218932777001276</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.941244158227424</v>
+        <v>-1.922893053705643</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.296597582706151</v>
+        <v>5.962882566254822</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.025038103498634</v>
+        <v>1.897377827051625</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.2412733668668178</v>
+        <v>-0.5659440701879292</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>7.371279360809662</v>
+        <v>7.318671159572117</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.809296610361809</v>
+        <v>7.746128327882287</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.390798802827742</v>
+        <v>6.388177348521622</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.72914471851604</v>
+        <v>13.94082305883401</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.43617428300939</v>
+        <v>10.5197563816623</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.44985996578416</v>
+        <v>7.127542823220099</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>15.05667714792599</v>
+        <v>15.05807082354831</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.07868650178653</v>
+        <v>8.037096759689073</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.764803843444512</v>
+        <v>5.463602408421912</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>13.36066883967545</v>
+        <v>13.44468271930342</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.1354354632534214</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.5479546591867996</v>
+        <v>0.5479546591867993</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.0149377317603612</v>
+        <v>0.0199235001651914</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.06616018077246082</v>
+        <v>-0.087366861658634</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.4555427145235577</v>
+        <v>0.4180967042382096</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.04004891870631653</v>
+        <v>0.0419109389754101</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.0690740891917852</v>
+        <v>-0.06873334252781314</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2200302931187109</v>
+        <v>0.2152924914198133</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09871355894019158</v>
+        <v>0.09221116652887298</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.01168358346105285</v>
+        <v>-0.03217257115913251</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3458992237091753</v>
+        <v>0.3483620369357244</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7198395451885428</v>
+        <v>0.7534521873632379</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5879433516453784</v>
+        <v>0.5974047725483005</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.423987509030481</v>
+        <v>1.334540809040872</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4429302186511499</v>
+        <v>0.4422850970886423</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3227698241430872</v>
+        <v>0.3026783360599309</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6443068024638221</v>
+        <v>0.6451035240636758</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4431678683076252</v>
+        <v>0.4633116101149463</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3321996458342598</v>
+        <v>0.3107024690704983</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7468300425561012</v>
+        <v>0.762764058173287</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>4.480575107287529</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8.038650002139287</v>
+        <v>8.038650002139281</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>9.976301606955417</v>
@@ -1306,7 +1306,7 @@
         <v>6.307461311975501</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>10.95149064705752</v>
+        <v>10.95149064705753</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.701817491422076</v>
+        <v>-1.919218554684356</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9211948596691815</v>
+        <v>1.165799389747228</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.270895931405347</v>
+        <v>4.512138938048508</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.68275757991814</v>
+        <v>5.864255591303288</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.212222838804579</v>
+        <v>4.061867792080434</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.861366410613503</v>
+        <v>9.744308099033924</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.122305377717076</v>
+        <v>3.094366195940329</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.398137942667455</v>
+        <v>3.525992269818121</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>8.365293339228213</v>
+        <v>8.333695958652083</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.743670589701737</v>
+        <v>5.539151132630346</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.969509048048308</v>
+        <v>8.03139921345227</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.50539422072484</v>
+        <v>11.88949833495961</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.05211603205714</v>
+        <v>13.84814992267743</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>12.15218763488263</v>
+        <v>11.98912121338792</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>17.3048003667586</v>
+        <v>17.10341158392839</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.815849673563273</v>
+        <v>9.035987760000721</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.949331944972736</v>
+        <v>9.221220624711545</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>13.66639745563434</v>
+        <v>13.51515150785543</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2704139274770716</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4851526571123627</v>
+        <v>0.4851526571123623</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3728479188828864</v>
@@ -1411,7 +1411,7 @@
         <v>0.2878667244162601</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4998159456100368</v>
+        <v>0.499815945610037</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.09351882448088135</v>
+        <v>-0.1073180951479248</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.04918197461818499</v>
+        <v>0.06179172461153178</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2238587802544019</v>
+        <v>0.2377040911864756</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1878642368806934</v>
+        <v>0.2029980805847552</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1119491092918821</v>
+        <v>0.13964692638684</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3392157395769331</v>
+        <v>0.3356661287160397</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1347452458979359</v>
+        <v>0.1342056519157705</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1433242592465912</v>
+        <v>0.1575748404363432</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3614363492853891</v>
+        <v>0.3593585941856416</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3088492882089941</v>
+        <v>0.3680913501445994</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5340491106371097</v>
+        <v>0.5196983628425372</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7526214931611419</v>
+        <v>0.7658674279909409</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5551385561032817</v>
+        <v>0.5660272187042483</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4984872972733831</v>
+        <v>0.4831880076378579</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.708534932205611</v>
+        <v>0.6822265697736006</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4313257633168337</v>
+        <v>0.4448493031796705</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4257653827559246</v>
+        <v>0.4493314902649717</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6709973938908932</v>
+        <v>0.6647837670028747</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.150560799385668</v>
+        <v>2.228881140274759</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.091722469710896</v>
+        <v>3.057680793344609</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7.800831020961314</v>
+        <v>7.651272725259939</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7.285996682191112</v>
+        <v>7.537409274615947</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>5.076666116607477</v>
+        <v>5.159124666915345</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>13.02870841845898</v>
+        <v>13.19118549122713</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>5.549575527249776</v>
+        <v>5.304978629300044</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>4.674283788485592</v>
+        <v>4.650977681145337</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>11.10984666839432</v>
+        <v>11.15171187362563</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.725562770126105</v>
+        <v>5.873161474493626</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.74894163396426</v>
+        <v>6.668203083323536</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11.62602270428649</v>
+        <v>11.79633244132916</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11.68746482335273</v>
+        <v>11.75638295278548</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.374087930305334</v>
+        <v>9.37972226000011</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>17.17815230636925</v>
+        <v>17.02927322227879</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.577060026472957</v>
+        <v>8.282517064271508</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>7.560872717501672</v>
+        <v>7.535569118906229</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>13.92537702576641</v>
+        <v>14.09377702654206</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.3239973177611016</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.6641635334193358</v>
+        <v>0.6641635334193354</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1475603628510829</v>
+        <v>0.1505212661979479</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2079829034990322</v>
+        <v>0.204043776352453</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5300690996016858</v>
+        <v>0.5231458132225607</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2892218437141751</v>
+        <v>0.3041069382453951</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2020824043715079</v>
+        <v>0.2057789036580335</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5168122435118203</v>
+        <v>0.5298403813935531</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2818411555407508</v>
+        <v>0.2693511496184428</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2329831573456493</v>
+        <v>0.2355401178590462</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.5662435152159154</v>
+        <v>0.5650503243932785</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4302945924920838</v>
+        <v>0.4624737578971002</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5180621002093266</v>
+        <v>0.5122724282163144</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8853213928548082</v>
+        <v>0.9049922396141252</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5134630918926578</v>
+        <v>0.5243680562672816</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4166769300876279</v>
+        <v>0.4098845057489809</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7593852329034271</v>
+        <v>0.7528568194297011</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4685697386885468</v>
+        <v>0.448637008045232</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4116885355518602</v>
+        <v>0.4118770906458431</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.7639721661467586</v>
+        <v>0.7677126636198033</v>
       </c>
     </row>
     <row r="34">
